--- a/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/IT Services & Consulting/Wipro Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>11,661.50</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11,587.50</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11,453.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11,378.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>11,220.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11,378.30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11,453.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>11,587.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11,661.50</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>11661.5</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>11220</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>11460.22</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>408.20</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>408.2</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>408.2</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>408.2</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>11,661.50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11,587.50</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11,453.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11,378.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>11,628.20</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11,378.30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11,453.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11,587.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11,661.50</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>11661.5</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>11378.3</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>11541.86</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>716.90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>701.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>551.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>556.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>376.40</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>556.80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>551.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>701.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>716.90</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>716.9</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>376.4</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>580.76</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-55.90</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>78.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-35.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>177.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-35.30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>78.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-55.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>36.80</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>177</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-55.9</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>40.16</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>5,423.20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5,527.60</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5,568.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5,320.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>5,427.10</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5,320.50</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5,568.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5,527.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5,423.20</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>5568.8</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>5320.5</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>5453.440000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>237.60</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>241.10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>259.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>281.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>265.20</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>281.70</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>259.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>241.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>237.60</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>281.7</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>257.06</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,940.90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,091.60</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,033.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,179.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,991.80</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,179.50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,033.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,091.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,940.90</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3179.5</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2940.9</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3047.36</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,306.10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,081.30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,962.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2,075.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>2,390.70</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2,075.10</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,962.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,081.30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,306.10</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>2390.7</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1962.2</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2163.08</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>373.10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>643.50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>647.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>639.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>638.80</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>639.80</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>647.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>643.50</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>373.10</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>373.1</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>588.6</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,679.20</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2,724.80</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,610.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,714.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,029.50</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2,714.90</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,610.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2,724.80</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,679.20</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3029.5</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2610</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2751.68</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>129.70</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>142.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>24.40</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>142.70</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>95.30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>129.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>87.40</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,591.80</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2,595.10</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,514.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,572.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,005.10</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,572.20</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,514.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2,595.10</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,591.80</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3005.1</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2514.7</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2655.78</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>2,591.80</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,595.10</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,514.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,572.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>3,005.10</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,572.20</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,514.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,595.10</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2,591.80</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3005.1</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2514.7</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2655.78</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>618.50</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>587.40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>582.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>653.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>701.60</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>653.70</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>582.60</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>587.40</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>618.50</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>701.6</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>582.6</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>628.76</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,973.30</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,007.70</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,932.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,918.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,303.50</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,918.50</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,932.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,007.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,973.30</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2303.5</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1918.5</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2027.02</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,973.30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,007.70</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,932.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,918.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,303.50</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,918.50</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,932.10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,007.70</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,973.30</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>2303.5</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1918.5</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2027.02</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>494.10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>494.10</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>486.10</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>486.10</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>486.10</t>
         </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>494.10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>494.10</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>489.3</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>9.53</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>8.33</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>9.50</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>8.308</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>9.53</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>8.17</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>8.33</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>9.50</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>8.308</v>
       </c>
     </row>
     <row r="30"/>
